--- a/input/women_2024.xlsx
+++ b/input/women_2024.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\The Data Digest\GitHub\Chess\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124CDB0D-A21C-4E07-B76A-A1A664683254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234E39F9-8FCC-4F8E-8B13-3AD954C631BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{0BB955A5-C9E0-4A5D-A922-99761FE2837A}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" activeTab="1" xr2:uid="{0BB955A5-C9E0-4A5D-A922-99761FE2837A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
   <si>
     <t>Category</t>
   </si>
@@ -93,6 +94,15 @@
   </si>
   <si>
     <t>average competition won</t>
+  </si>
+  <si>
+    <t>Alexandra Kosteniuk</t>
+  </si>
+  <si>
+    <t>Aleksandra Goryachkina</t>
+  </si>
+  <si>
+    <t>Karina Ambartsumova</t>
   </si>
 </sst>
 </file>
@@ -150,8 +160,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -486,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABDC63B9-B905-4F7E-906E-C82DB910BC9F}">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -792,285 +804,296 @@
       <c r="E14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D32" s="6"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D37" s="6"/>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D40" s="6"/>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D42" s="6"/>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D43" s="6"/>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D44" s="6"/>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D45" s="6"/>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D46" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEC2E9AC-D017-49E6-B43C-D228C6A13786}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="22.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>1400</v>
+      </c>
+      <c r="C2">
+        <v>1600</v>
+      </c>
+      <c r="E2">
+        <v>1100</v>
+      </c>
+      <c r="F2">
+        <v>1400</v>
+      </c>
+      <c r="G2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>37</v>
+      </c>
+      <c r="C3">
+        <v>27</v>
+      </c>
+      <c r="D3">
+        <v>41</v>
+      </c>
+      <c r="E3">
+        <v>24</v>
+      </c>
+      <c r="F3">
+        <v>29</v>
+      </c>
+      <c r="G3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>2792</v>
+      </c>
+      <c r="C4">
+        <v>2770</v>
+      </c>
+      <c r="D4">
+        <v>2717</v>
+      </c>
+      <c r="E4">
+        <v>2729</v>
+      </c>
+      <c r="F4">
+        <v>2769</v>
+      </c>
+      <c r="G4">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>37</v>
+      </c>
+      <c r="C5">
+        <v>66</v>
+      </c>
+      <c r="D5">
+        <v>85</v>
+      </c>
+      <c r="E5">
+        <v>37</v>
+      </c>
+      <c r="F5">
+        <v>69</v>
+      </c>
+      <c r="G5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>6.82</v>
+      </c>
+      <c r="C6">
+        <v>6.52</v>
+      </c>
+      <c r="D6">
+        <v>6.11</v>
+      </c>
+      <c r="E6" s="3">
+        <v>5.97</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="G6" s="3">
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="5">
+        <v>57.8</v>
+      </c>
+      <c r="F7" s="5">
+        <v>51.7</v>
+      </c>
+      <c r="G7" s="5">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="5">
+        <v>50.8</v>
+      </c>
+      <c r="F8" s="5">
+        <v>52.6</v>
+      </c>
+      <c r="G8" s="5">
+        <v>54.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10">
+        <v>2590</v>
+      </c>
+      <c r="F10">
+        <v>2604</v>
+      </c>
+      <c r="G10">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11">
+        <v>2493</v>
+      </c>
+      <c r="F11">
+        <v>2510</v>
+      </c>
+      <c r="G11">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
